--- a/templates/template-matrice-competences.xlsx
+++ b/templates/template-matrice-competences.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BABE9D-9138-4A19-89E0-AB12F558D886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F38285-FF48-481E-AD46-C844BB2D8BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="B4" sheetId="4" r:id="rId4"/>
     <sheet name="B5" sheetId="5" r:id="rId5"/>
     <sheet name="B6" sheetId="6" r:id="rId6"/>
+    <sheet name="UE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="135">
   <si>
     <t>Bloc de compétences</t>
   </si>
@@ -409,13 +410,34 @@
   </si>
   <si>
     <t>Compétence B4.7</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nom complet</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>Semestre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +520,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -531,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -962,11 +1014,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,6 +1298,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,12 +1367,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,24 +1397,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,42 +1409,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,11 +1813,11 @@
   <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:C80"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,51 +1834,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1643,7 +1911,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1661,7 +1929,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1677,7 +1945,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1961,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1711,7 +1979,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +2001,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1759,7 +2027,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +2051,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1799,7 +2067,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +2081,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +2095,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1841,7 +2109,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1859,7 +2127,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1883,7 +2151,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -1897,7 +2165,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -1911,7 +2179,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -1925,7 +2193,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1939,7 +2207,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1965,7 +2233,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +2259,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2011,7 +2279,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -2037,7 +2305,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2057,7 +2325,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -2081,7 +2349,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2097,7 +2365,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -2113,7 +2381,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2395,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2143,7 +2411,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -2157,7 +2425,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -2171,7 +2439,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -2185,7 +2453,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2467,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -2213,7 +2481,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -2227,10 +2495,10 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28"/>
@@ -2247,8 +2515,8 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28"/>
@@ -2265,10 +2533,10 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -2285,8 +2553,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28"/>
@@ -2307,10 +2575,10 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -2327,8 +2595,8 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="60" t="s">
@@ -2349,10 +2617,10 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -2375,8 +2643,8 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28"/>
@@ -2393,10 +2661,10 @@
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -2409,8 +2677,8 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -2423,8 +2691,8 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -2439,10 +2707,10 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="28"/>
@@ -2455,8 +2723,8 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="28"/>
@@ -2469,8 +2737,8 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="28"/>
@@ -2483,8 +2751,8 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="28"/>
@@ -2497,8 +2765,8 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -2511,10 +2779,10 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28"/>
@@ -2529,8 +2797,8 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -2549,8 +2817,8 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -2569,8 +2837,8 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28"/>
@@ -2587,10 +2855,10 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -2603,8 +2871,8 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="28"/>
@@ -2617,8 +2885,8 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="31"/>
@@ -2631,8 +2899,8 @@
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="39"/>
@@ -2645,8 +2913,8 @@
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="41"/>
@@ -2659,10 +2927,10 @@
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="35"/>
@@ -2677,8 +2945,8 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35"/>
@@ -2695,10 +2963,10 @@
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35"/>
@@ -2717,8 +2985,8 @@
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35" t="s">
@@ -2735,10 +3003,10 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35"/>
@@ -2759,8 +3027,8 @@
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35"/>
@@ -2777,10 +3045,10 @@
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35"/>
@@ -2793,8 +3061,8 @@
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -2807,8 +3075,8 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -2821,8 +3089,8 @@
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -2835,8 +3103,8 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -2849,8 +3117,8 @@
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35"/>
@@ -2863,8 +3131,8 @@
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -2877,10 +3145,10 @@
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -2893,8 +3161,8 @@
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="82"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -2907,8 +3175,8 @@
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="83"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="66"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -3150,6 +3418,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B18:B23"/>
@@ -3166,17 +3445,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3206,45 +3474,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -3268,7 +3536,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3281,7 +3549,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -3294,7 +3562,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -3307,7 +3575,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3320,7 +3588,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -3333,7 +3601,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3350,7 +3618,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -3365,7 +3633,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3378,7 +3646,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3389,7 +3657,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -3400,7 +3668,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -3411,7 +3679,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3426,7 +3694,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -3441,7 +3709,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -3452,7 +3720,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -3463,7 +3731,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -3474,7 +3742,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -3485,7 +3753,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3504,7 +3772,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -3519,7 +3787,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3532,7 +3800,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -3547,7 +3815,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3564,7 +3832,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -3581,7 +3849,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3594,7 +3862,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -3605,7 +3873,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -3616,7 +3884,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3629,7 +3897,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -3640,7 +3908,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -3651,7 +3919,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3930,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3941,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -3684,7 +3952,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -3695,10 +3963,10 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -3712,8 +3980,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -3727,10 +3995,10 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -3744,8 +4012,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -3761,10 +4029,10 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -3780,8 +4048,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="53" t="s">
@@ -3799,10 +4067,10 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -3818,8 +4086,8 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28" t="s">
@@ -3833,10 +4101,10 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -3846,8 +4114,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -3857,8 +4125,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28"/>
@@ -3868,10 +4136,10 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="28"/>
@@ -3881,8 +4149,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="28"/>
@@ -3892,8 +4160,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="28"/>
@@ -3903,8 +4171,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="28"/>
@@ -3914,8 +4182,8 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -3925,10 +4193,10 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28" t="s">
@@ -3942,8 +4210,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -3959,8 +4227,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -3974,8 +4242,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28" t="s">
@@ -3993,10 +4261,10 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -4006,8 +4274,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="28"/>
@@ -4017,8 +4285,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="31"/>
@@ -4028,8 +4296,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="51"/>
@@ -4039,8 +4307,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="51"/>
@@ -4050,10 +4318,10 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="35" t="s">
@@ -4067,8 +4335,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35" t="s">
@@ -4084,10 +4352,10 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35" t="s">
@@ -4101,8 +4369,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35" t="s">
@@ -4116,10 +4384,10 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35" t="s">
@@ -4135,8 +4403,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35"/>
@@ -4146,10 +4414,10 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35"/>
@@ -4159,8 +4427,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -4170,8 +4438,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -4181,8 +4449,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -4192,8 +4460,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -4203,8 +4471,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35"/>
@@ -4214,8 +4482,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -4225,10 +4493,10 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -4238,8 +4506,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -4249,8 +4517,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -4432,6 +4700,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G5"/>
@@ -4443,22 +4727,6 @@
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4489,47 +4757,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -4556,7 +4824,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4570,7 +4838,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4582,7 +4850,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -4594,7 +4862,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4608,7 +4876,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4628,7 +4896,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4644,7 +4912,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4658,7 +4926,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4672,7 +4940,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -4684,7 +4952,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -4696,7 +4964,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -4708,7 +4976,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -4722,7 +4990,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +5002,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -4746,7 +5014,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -4758,7 +5026,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -4770,7 +5038,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -4782,7 +5050,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4802,7 +5070,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -4816,7 +5084,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -4834,7 +5102,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -4854,7 +5122,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4870,7 +5138,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -4882,7 +5150,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -4896,7 +5164,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -4908,7 +5176,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -4920,7 +5188,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -4934,7 +5202,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -4946,7 +5214,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -4958,7 +5226,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -4970,7 +5238,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4982,7 +5250,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -4994,7 +5262,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -5006,10 +5274,10 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28"/>
@@ -5020,8 +5288,8 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28"/>
@@ -5038,10 +5306,10 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -5052,8 +5320,8 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28"/>
@@ -5070,10 +5338,10 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28"/>
@@ -5092,8 +5360,8 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="60" t="s">
@@ -5114,10 +5382,10 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28"/>
@@ -5128,8 +5396,8 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28"/>
@@ -5140,10 +5408,10 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -5154,8 +5422,8 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -5166,8 +5434,8 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28"/>
@@ -5178,10 +5446,10 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="28"/>
@@ -5192,8 +5460,8 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="28"/>
@@ -5204,8 +5472,8 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="28"/>
@@ -5216,8 +5484,8 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="28"/>
@@ -5228,8 +5496,8 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -5240,10 +5508,10 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28"/>
@@ -5254,8 +5522,8 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -5274,8 +5542,8 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28"/>
@@ -5286,8 +5554,8 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28"/>
@@ -5298,10 +5566,10 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -5312,8 +5580,8 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="28"/>
@@ -5324,8 +5592,8 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="39"/>
@@ -5336,8 +5604,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="54"/>
@@ -5348,8 +5616,8 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="57"/>
@@ -5360,10 +5628,10 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="35"/>
@@ -5374,8 +5642,8 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35"/>
@@ -5386,10 +5654,10 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35"/>
@@ -5402,8 +5670,8 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35"/>
@@ -5416,10 +5684,10 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35"/>
@@ -5430,8 +5698,8 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35" t="s">
@@ -5444,10 +5712,10 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35"/>
@@ -5458,8 +5726,8 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -5470,8 +5738,8 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -5482,8 +5750,8 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -5494,8 +5762,8 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -5506,8 +5774,8 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35" t="s">
@@ -5520,8 +5788,8 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -5532,10 +5800,10 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -5546,8 +5814,8 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -5558,8 +5826,8 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -5761,26 +6029,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B60:B64"/>
@@ -5788,6 +6036,26 @@
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5817,51 +6085,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -5894,7 +6162,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5910,7 +6178,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -5924,7 +6192,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -5938,7 +6206,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -5954,7 +6222,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -5968,7 +6236,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5984,7 +6252,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -5998,7 +6266,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6022,7 +6290,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -6042,7 +6310,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -6062,7 +6330,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -6084,7 +6352,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -6104,7 +6372,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -6130,7 +6398,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -6156,7 +6424,7 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -6176,7 +6444,7 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -6192,7 +6460,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -6208,7 +6476,7 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -6224,7 +6492,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -6238,7 +6506,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -6254,7 +6522,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -6268,7 +6536,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -6284,7 +6552,7 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -6298,7 +6566,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -6320,7 +6588,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -6338,7 +6606,7 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -6358,7 +6626,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -6378,7 +6646,7 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -6402,7 +6670,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -6428,7 +6696,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -6448,7 +6716,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -6466,7 +6734,7 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -6482,7 +6750,7 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -6498,10 +6766,10 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28"/>
@@ -6514,8 +6782,8 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28"/>
@@ -6528,10 +6796,10 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -6544,8 +6812,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28"/>
@@ -6558,10 +6826,10 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28"/>
@@ -6574,8 +6842,8 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="28"/>
@@ -6588,10 +6856,10 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28"/>
@@ -6604,8 +6872,8 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28"/>
@@ -6618,10 +6886,10 @@
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -6634,8 +6902,8 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -6648,8 +6916,8 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28"/>
@@ -6662,10 +6930,10 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="31"/>
@@ -6678,8 +6946,8 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="31"/>
@@ -6692,8 +6960,8 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="31"/>
@@ -6706,8 +6974,8 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="31"/>
@@ -6720,8 +6988,8 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -6734,10 +7002,10 @@
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28"/>
@@ -6750,8 +7018,8 @@
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28"/>
@@ -6764,8 +7032,8 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28"/>
@@ -6778,8 +7046,8 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28"/>
@@ -6792,10 +7060,10 @@
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -6808,8 +7076,8 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="31"/>
@@ -6822,8 +7090,8 @@
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="31"/>
@@ -6836,8 +7104,8 @@
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="31"/>
@@ -6850,8 +7118,8 @@
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="31"/>
@@ -6864,10 +7132,10 @@
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="35"/>
@@ -6880,8 +7148,8 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35"/>
@@ -6894,10 +7162,10 @@
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35"/>
@@ -6910,8 +7178,8 @@
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35"/>
@@ -6924,10 +7192,10 @@
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35"/>
@@ -6940,8 +7208,8 @@
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35"/>
@@ -6954,10 +7222,10 @@
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35"/>
@@ -6970,8 +7238,8 @@
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -6984,8 +7252,8 @@
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -6998,8 +7266,8 @@
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -7012,8 +7280,8 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -7026,8 +7294,8 @@
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35"/>
@@ -7040,8 +7308,8 @@
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -7054,10 +7322,10 @@
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -7070,8 +7338,8 @@
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -7084,8 +7352,8 @@
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -7327,16 +7595,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B77"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -7348,12 +7612,16 @@
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7384,47 +7652,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -7451,7 +7719,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -7465,7 +7733,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -7477,7 +7745,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -7489,7 +7757,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -7505,7 +7773,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -7517,7 +7785,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -7533,7 +7801,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -7545,7 +7813,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -7559,7 +7827,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -7571,7 +7839,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -7583,7 +7851,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7863,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -7611,7 +7879,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -7623,7 +7891,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -7635,7 +7903,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -7647,7 +7915,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -7659,7 +7927,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -7671,7 +7939,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -7689,7 +7957,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -7701,7 +7969,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -7715,7 +7983,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -7727,7 +7995,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -7743,7 +8011,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -7757,7 +8025,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -7771,7 +8039,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -7783,7 +8051,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -7795,7 +8063,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -7809,7 +8077,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -7821,7 +8089,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -7833,7 +8101,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -7845,7 +8113,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -7857,7 +8125,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -7869,7 +8137,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -7881,10 +8149,10 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -7903,8 +8171,8 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28"/>
@@ -7917,10 +8185,10 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -7935,8 +8203,8 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28"/>
@@ -7947,10 +8215,10 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -7963,8 +8231,8 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="46" t="s">
@@ -7977,10 +8245,10 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28"/>
@@ -7993,8 +8261,8 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28" t="s">
@@ -8009,10 +8277,10 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -8023,8 +8291,8 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -8035,8 +8303,8 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28"/>
@@ -8047,10 +8315,10 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="28"/>
@@ -8061,8 +8329,8 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="28"/>
@@ -8073,8 +8341,8 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="28"/>
@@ -8085,8 +8353,8 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="28"/>
@@ -8097,8 +8365,8 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -8109,10 +8377,10 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28"/>
@@ -8129,8 +8397,8 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -8143,8 +8411,8 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28"/>
@@ -8157,8 +8425,8 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28"/>
@@ -8175,10 +8443,10 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -8189,8 +8457,8 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="28"/>
@@ -8201,8 +8469,8 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="31"/>
@@ -8213,8 +8481,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="39"/>
@@ -8225,8 +8493,8 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="39"/>
@@ -8237,10 +8505,10 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="48"/>
@@ -8251,8 +8519,8 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35" t="s">
@@ -8271,10 +8539,10 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35"/>
@@ -8285,8 +8553,8 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35" t="s">
@@ -8301,10 +8569,10 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35"/>
@@ -8317,8 +8585,8 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35"/>
@@ -8333,10 +8601,10 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35"/>
@@ -8347,8 +8615,8 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -8359,8 +8627,8 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -8371,8 +8639,8 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -8383,8 +8651,8 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -8397,8 +8665,8 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35"/>
@@ -8411,8 +8679,8 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -8423,10 +8691,10 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -8437,8 +8705,8 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -8449,8 +8717,8 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -8652,13 +8920,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:H5"/>
@@ -8670,15 +8940,13 @@
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8690,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -8708,45 +8976,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -8770,7 +9038,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -8783,7 +9051,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
@@ -8794,7 +9062,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -8805,7 +9073,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -8818,7 +9086,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
@@ -8829,7 +9097,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -8842,7 +9110,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
@@ -8853,7 +9121,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -8866,7 +9134,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
@@ -8877,7 +9145,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
@@ -8888,7 +9156,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
@@ -8899,7 +9167,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="67" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -8912,7 +9180,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
@@ -8923,7 +9191,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -8934,7 +9202,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
@@ -8945,7 +9213,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
@@ -8956,7 +9224,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="7" t="s">
         <v>38</v>
       </c>
@@ -8967,7 +9235,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -8984,7 +9252,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="7" t="s">
         <v>40</v>
       </c>
@@ -8995,7 +9263,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -9008,7 +9276,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
@@ -9019,7 +9287,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="86" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -9034,7 +9302,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
@@ -9045,7 +9313,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -9058,7 +9326,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="7" t="s">
         <v>46</v>
       </c>
@@ -9069,7 +9337,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="7" t="s">
         <v>47</v>
       </c>
@@ -9080,7 +9348,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -9093,7 +9361,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -9104,7 +9372,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -9115,7 +9383,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
@@ -9126,7 +9394,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
@@ -9137,7 +9405,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7" t="s">
         <v>53</v>
       </c>
@@ -9148,7 +9416,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
@@ -9159,10 +9427,10 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -9176,8 +9444,8 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="28"/>
@@ -9189,10 +9457,10 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="28"/>
@@ -9202,8 +9470,8 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
-      <c r="C43" s="97" t="s">
+      <c r="B43" s="75"/>
+      <c r="C43" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="28"/>
@@ -9213,10 +9481,10 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -9234,8 +9502,8 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="66"/>
-      <c r="C45" s="97" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="46" t="s">
@@ -9251,10 +9519,10 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="62" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="28"/>
@@ -9266,8 +9534,8 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="66"/>
-      <c r="C47" s="97" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="62" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="28"/>
@@ -9277,10 +9545,10 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28"/>
@@ -9290,8 +9558,8 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="28"/>
@@ -9301,8 +9569,8 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83"/>
-      <c r="C50" s="97" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="28"/>
@@ -9312,10 +9580,10 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D51" s="28"/>
@@ -9325,8 +9593,8 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
-      <c r="C52" s="97" t="s">
+      <c r="B52" s="65"/>
+      <c r="C52" s="62" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="28" t="s">
@@ -9338,8 +9606,8 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="82"/>
-      <c r="C53" s="97" t="s">
+      <c r="B53" s="65"/>
+      <c r="C53" s="62" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="28"/>
@@ -9349,8 +9617,8 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="82"/>
-      <c r="C54" s="97" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="28"/>
@@ -9360,8 +9628,8 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="83"/>
-      <c r="C55" s="97" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="28"/>
@@ -9371,10 +9639,10 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="62" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="28"/>
@@ -9384,8 +9652,8 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="93"/>
-      <c r="C57" s="97" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="62" t="s">
         <v>72</v>
       </c>
       <c r="D57" s="28"/>
@@ -9401,8 +9669,8 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="82"/>
-      <c r="C58" s="97" t="s">
+      <c r="B58" s="65"/>
+      <c r="C58" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -9414,8 +9682,8 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="83"/>
-      <c r="C59" s="97" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="62" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="28" t="s">
@@ -9431,10 +9699,10 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="62" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="28"/>
@@ -9444,8 +9712,8 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="82"/>
-      <c r="C61" s="97" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="28"/>
@@ -9455,8 +9723,8 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="82"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="28"/>
@@ -9466,8 +9734,8 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
-      <c r="C63" s="97" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="62" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="31"/>
@@ -9477,8 +9745,8 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="97" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="62" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="51"/>
@@ -9488,10 +9756,10 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="35"/>
@@ -9505,8 +9773,8 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83"/>
-      <c r="C66" s="98" t="s">
+      <c r="B66" s="66"/>
+      <c r="C66" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="35"/>
@@ -9518,10 +9786,10 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="35" t="s">
@@ -9537,8 +9805,8 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="83"/>
-      <c r="C68" s="98" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="35"/>
@@ -9554,10 +9822,10 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="35"/>
@@ -9567,8 +9835,8 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="83"/>
-      <c r="C70" s="98" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="35"/>
@@ -9582,10 +9850,10 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="98" t="s">
+      <c r="C71" s="63" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="35" t="s">
@@ -9599,8 +9867,8 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="82"/>
-      <c r="C72" s="98" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="63" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="35"/>
@@ -9610,8 +9878,8 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="82"/>
-      <c r="C73" s="98" t="s">
+      <c r="B73" s="65"/>
+      <c r="C73" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="35"/>
@@ -9621,8 +9889,8 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="82"/>
-      <c r="C74" s="98" t="s">
+      <c r="B74" s="65"/>
+      <c r="C74" s="63" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="35"/>
@@ -9632,8 +9900,8 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="82"/>
-      <c r="C75" s="98" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="35"/>
@@ -9643,8 +9911,8 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="82"/>
-      <c r="C76" s="98" t="s">
+      <c r="B76" s="65"/>
+      <c r="C76" s="63" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="35"/>
@@ -9656,8 +9924,8 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="83"/>
-      <c r="C77" s="98" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="63" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="35"/>
@@ -9667,10 +9935,10 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="84" t="s">
+      <c r="B78" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="63" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="35"/>
@@ -9680,8 +9948,8 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="98" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="35"/>
@@ -9691,8 +9959,8 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="98" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="63" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="35"/>
@@ -9883,6 +10151,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G5"/>
@@ -9894,25 +10178,282 @@
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B78:B80"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634D6961-6398-4439-BAED-BCEB05F29438}">
+  <dimension ref="B1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="122">
+        <v>1</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="105"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="105"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135"/>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="105"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="134"/>
+      <c r="F7" s="135"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="105"/>
+      <c r="C8" s="122">
+        <v>2</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="134"/>
+      <c r="F8" s="135"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="105"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="105"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="105"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="106"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="126">
+        <v>1</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="108"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="108"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="108"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="108"/>
+      <c r="C18" s="129">
+        <v>2</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="108"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="109"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="142"/>
+      <c r="F20" s="143"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="131">
+        <v>1</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="111"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="147"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="111"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="111"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="112"/>
+      <c r="C25" s="121">
+        <v>2</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="148"/>
+      <c r="F25" s="149"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>